--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -150,11 +150,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -219,17 +214,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +521,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B2 B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -601,7 +587,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -672,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -686,7 +672,7 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -706,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -724,7 +710,7 @@
         <v>1576.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>687.81</v>
       </c>
@@ -744,7 +730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -764,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -783,36 +769,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -825,7 +781,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="B2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,54 +884,31 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="5">
         <v>10000</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6">
         <v>0</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -943,12 +920,8 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
         <v>788.49</v>
       </c>
@@ -974,9 +947,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -993,12 +963,8 @@
       <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6">
         <v>788.49</v>
       </c>
@@ -1024,9 +990,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
@@ -1043,12 +1006,8 @@
       <c r="C5" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
         <v>788.49</v>
       </c>
@@ -1074,9 +1033,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
@@ -1093,12 +1049,8 @@
       <c r="C6" s="7">
         <v>42125</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6">
         <v>812.14</v>
       </c>
@@ -1124,9 +1076,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
@@ -1143,12 +1092,8 @@
       <c r="C7" s="7">
         <v>42156</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6">
         <v>820.27</v>
       </c>
@@ -1174,9 +1119,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
@@ -1193,12 +1135,8 @@
       <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
         <v>828.47</v>
       </c>
@@ -1224,9 +1162,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1243,12 +1178,8 @@
       <c r="C9" s="7">
         <v>42217</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6">
         <v>836.75</v>
       </c>
@@ -1274,9 +1205,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
@@ -1293,12 +1221,8 @@
       <c r="C10" s="7">
         <v>42248</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6">
         <v>845.12</v>
       </c>
@@ -1324,9 +1248,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
@@ -1343,12 +1264,8 @@
       <c r="C11" s="7">
         <v>42278</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6">
         <v>853.57</v>
       </c>
@@ -1374,9 +1291,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
@@ -1393,12 +1307,8 @@
       <c r="C12" s="7">
         <v>42309</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6">
         <v>862.11</v>
       </c>
@@ -1424,9 +1334,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
@@ -1443,12 +1350,8 @@
       <c r="C13" s="7">
         <v>42339</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6">
         <v>870.73</v>
       </c>
@@ -1474,9 +1377,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -1493,12 +1393,8 @@
       <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6">
         <v>905.37</v>
       </c>
@@ -1524,9 +1420,6 @@
         <v>0</v>
       </c>
       <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -227,6 +232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -274,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -778,10 +820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +831,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -829,17 +871,18 @@
       <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -865,8 +908,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -902,14 +946,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -945,14 +990,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -988,14 +1034,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1031,14 +1078,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1074,14 +1122,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1117,14 +1166,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1160,14 +1210,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1203,14 +1254,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1246,14 +1298,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1289,14 +1342,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1332,14 +1386,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1375,10 +1430,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>914.42</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -140,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -282,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +310,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
